--- a/data/trans_dic/P55$familiar-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiar-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1872749802572941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3732200435942157</v>
+        <v>0.3732200435942158</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2046734488901428</v>
@@ -697,7 +697,7 @@
         <v>0.1826174157756749</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4719012098255891</v>
+        <v>0.4719012098255893</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08140052717760274</v>
+        <v>0.07242563231139161</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04754937001967726</v>
+        <v>0.06180428566098119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08811595709993442</v>
+        <v>0.08817708537408915</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2720104554416861</v>
+        <v>0.2725506748417078</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1198657674622</v>
+        <v>0.1225854526145482</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1865223990649119</v>
+        <v>0.1944362614888603</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1091522654400243</v>
+        <v>0.1110192334438134</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4556822851979063</v>
+        <v>0.4556533334451516</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1254007731037369</v>
+        <v>0.1239495121121392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.158649797852323</v>
+        <v>0.155715878598432</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1151465623639664</v>
+        <v>0.1183897253491433</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4088183622879342</v>
+        <v>0.4031971965622322</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3220995032866374</v>
+        <v>0.3222233557702535</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2744450377742862</v>
+        <v>0.2669853907574096</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.385599431931319</v>
+        <v>0.3629682803707003</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4855058218799935</v>
+        <v>0.4821231043645645</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3063442852415013</v>
+        <v>0.3025109382393422</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4050976150663653</v>
+        <v>0.400666744947171</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2842082039107637</v>
+        <v>0.2816023697352992</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6187092854255848</v>
+        <v>0.6239995033700377</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2720316397842769</v>
+        <v>0.2778491143585088</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3173530390744016</v>
+        <v>0.3211380396333854</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2658925644144753</v>
+        <v>0.2577215326130471</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.541657840417563</v>
+        <v>0.538943653510318</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1279673302204632</v>
+        <v>0.1276107616281564</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1886725355342587</v>
+        <v>0.1825628943140809</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2392295236026489</v>
+        <v>0.2441850025791091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4833282497208388</v>
+        <v>0.4834095711505184</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.209173712567122</v>
+        <v>0.2095772155160832</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2606839877022212</v>
+        <v>0.2613531793486559</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2510571578228988</v>
+        <v>0.2498873673862561</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5410026047574682</v>
+        <v>0.5434301596450499</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1966654635564363</v>
+        <v>0.200948875673633</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2650661386433571</v>
+        <v>0.2557444498239514</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2671715216832366</v>
+        <v>0.2659107332429265</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5406180725973039</v>
+        <v>0.5376797993114451</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3043676457608498</v>
+        <v>0.2975663445573173</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3703796572065252</v>
+        <v>0.3602309103401363</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4203993262370069</v>
+        <v>0.4258238475714726</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6324479308576428</v>
+        <v>0.6357958609186</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3600648083767894</v>
+        <v>0.3525858049650448</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3982576884108718</v>
+        <v>0.3936397517546498</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4043641777995778</v>
+        <v>0.3955562368475204</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6298728819377238</v>
+        <v>0.6280558860308553</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.310708953453099</v>
+        <v>0.3138880163881418</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3655659511622617</v>
+        <v>0.3633313241216948</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3897240488180148</v>
+        <v>0.3893031244017531</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6177977048980683</v>
+        <v>0.615627815603911</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2913127646686062</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.499330212652268</v>
+        <v>0.4993302126522681</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2557371658920687</v>
@@ -957,7 +957,7 @@
         <v>0.2796314783268767</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5753711342695561</v>
+        <v>0.5753711342695562</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2333796087890873</v>
@@ -969,7 +969,7 @@
         <v>0.2832804344144774</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5509390828393024</v>
+        <v>0.5509390828393023</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1260247094687757</v>
+        <v>0.1368441615729329</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1623342955361214</v>
+        <v>0.1621881294445405</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2158130664458962</v>
+        <v>0.2190425914393711</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.438497839853246</v>
+        <v>0.4409759403827227</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2021249972789979</v>
+        <v>0.1989970118154025</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2614857081672226</v>
+        <v>0.2640111137412486</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2232358702697837</v>
+        <v>0.223229096580025</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5325285231013044</v>
+        <v>0.5374346605038134</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1898722202856415</v>
+        <v>0.1927290954218062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2466038256838472</v>
+        <v>0.2424513138837983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2391127998660184</v>
+        <v>0.2335336905231195</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5167190147420645</v>
+        <v>0.5139491388266003</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2611803867869297</v>
+        <v>0.2790742133208688</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.310686426394403</v>
+        <v>0.3112911963174954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3643033143631941</v>
+        <v>0.368713043047995</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5637618466524511</v>
+        <v>0.5659138741824152</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3229410421528258</v>
+        <v>0.3189315091687445</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3836210234831081</v>
+        <v>0.3770778320358577</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3502903037867434</v>
+        <v>0.3456704478220551</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6123705853640998</v>
+        <v>0.6153927874222012</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2800982219981317</v>
+        <v>0.2849507622718641</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3287731808288414</v>
+        <v>0.3351425038088994</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3314516226215171</v>
+        <v>0.3303181974015781</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5858914964958472</v>
+        <v>0.5838698396335664</v>
       </c>
     </row>
     <row r="13">
@@ -1326,40 +1326,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3401</v>
+        <v>3026</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2161</v>
+        <v>2809</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14977</v>
+        <v>15007</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8110</v>
+        <v>8294</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13004</v>
+        <v>13556</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8966</v>
+        <v>9119</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>36691</v>
+        <v>36688</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13724</v>
+        <v>13566</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>18272</v>
+        <v>17934</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13067</v>
+        <v>13435</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>55428</v>
+        <v>54665</v>
       </c>
     </row>
     <row r="7">
@@ -1370,40 +1370,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13459</v>
+        <v>13464</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12475</v>
+        <v>12136</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12084</v>
+        <v>11375</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26733</v>
+        <v>26547</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20728</v>
+        <v>20468</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28242</v>
+        <v>27933</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23345</v>
+        <v>23131</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>49817</v>
+        <v>50243</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29773</v>
+        <v>30409</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>36551</v>
+        <v>36986</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>30173</v>
+        <v>29246</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>73438</v>
+        <v>73070</v>
       </c>
     </row>
     <row r="8">
@@ -1506,40 +1506,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10851</v>
+        <v>10821</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19002</v>
+        <v>18386</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>21560</v>
+        <v>22006</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>55128</v>
+        <v>55137</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>34150</v>
+        <v>34216</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>54695</v>
+        <v>54835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>46501</v>
+        <v>46285</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>149708</v>
+        <v>150380</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>48784</v>
+        <v>49847</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>82310</v>
+        <v>79415</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>73564</v>
+        <v>73217</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>211264</v>
+        <v>210116</v>
       </c>
     </row>
     <row r="11">
@@ -1550,40 +1550,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25809</v>
+        <v>25232</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37302</v>
+        <v>36280</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>37887</v>
+        <v>38376</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>72136</v>
+        <v>72518</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>58785</v>
+        <v>57564</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>83560</v>
+        <v>82591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>74897</v>
+        <v>73266</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>174300</v>
+        <v>173798</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>77073</v>
+        <v>77862</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>113517</v>
+        <v>112823</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>107308</v>
+        <v>107192</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>241424</v>
+        <v>240576</v>
       </c>
     </row>
     <row r="12">
@@ -1686,40 +1686,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15952</v>
+        <v>17321</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23728</v>
+        <v>23707</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26212</v>
+        <v>26604</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>74159</v>
+        <v>74578</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>46675</v>
+        <v>45953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>73093</v>
+        <v>73799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>59685</v>
+        <v>59683</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>190241</v>
+        <v>191994</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>67880</v>
+        <v>68901</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>104979</v>
+        <v>103211</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>92972</v>
+        <v>90803</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>271981</v>
+        <v>270523</v>
       </c>
     </row>
     <row r="15">
@@ -1730,40 +1730,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33060</v>
+        <v>35325</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45412</v>
+        <v>45501</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44248</v>
+        <v>44783</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>95344</v>
+        <v>95708</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>74574</v>
+        <v>73648</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>107234</v>
+        <v>105405</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>93655</v>
+        <v>92419</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>218764</v>
+        <v>219844</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>100135</v>
+        <v>101870</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>139958</v>
+        <v>142669</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>128875</v>
+        <v>128435</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>308391</v>
+        <v>307327</v>
       </c>
     </row>
     <row r="16">
